--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tnfsf13-Tnfrsf14.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tnfsf13-Tnfrsf14.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.291812</v>
+        <v>0.5347833333333334</v>
       </c>
       <c r="H2">
-        <v>0.875436</v>
+        <v>1.60435</v>
       </c>
       <c r="I2">
-        <v>0.1179458223311005</v>
+        <v>0.196822066153855</v>
       </c>
       <c r="J2">
-        <v>0.1179458223311005</v>
+        <v>0.196822066153855</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.118296</v>
+        <v>3.961421333333333</v>
       </c>
       <c r="N2">
-        <v>21.354888</v>
+        <v>11.884264</v>
       </c>
       <c r="O2">
-        <v>0.4484208155031491</v>
+        <v>0.3114993985605504</v>
       </c>
       <c r="P2">
-        <v>0.4484208155031491</v>
+        <v>0.3114993985605504</v>
       </c>
       <c r="Q2">
-        <v>2.077204192352</v>
+        <v>2.118502105377778</v>
       </c>
       <c r="R2">
-        <v>18.694837731168</v>
+        <v>19.0665189484</v>
       </c>
       <c r="S2">
-        <v>0.05288936183490162</v>
+        <v>0.06130995523037071</v>
       </c>
       <c r="T2">
-        <v>0.05288936183490161</v>
+        <v>0.06130995523037069</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.291812</v>
+        <v>0.5347833333333334</v>
       </c>
       <c r="H3">
-        <v>0.875436</v>
+        <v>1.60435</v>
       </c>
       <c r="I3">
-        <v>0.1179458223311005</v>
+        <v>0.196822066153855</v>
       </c>
       <c r="J3">
-        <v>0.1179458223311005</v>
+        <v>0.196822066153855</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>19.113044</v>
       </c>
       <c r="O3">
-        <v>0.4013454332903816</v>
+        <v>0.5009735319462221</v>
       </c>
       <c r="P3">
-        <v>0.4013454332903816</v>
+        <v>0.500973531946222</v>
       </c>
       <c r="Q3">
-        <v>1.859138531909333</v>
+        <v>3.407112460155556</v>
       </c>
       <c r="R3">
-        <v>16.732246787184</v>
+        <v>30.6640121414</v>
       </c>
       <c r="S3">
-        <v>0.0473370171682659</v>
+        <v>0.09860264564604973</v>
       </c>
       <c r="T3">
-        <v>0.04733701716826589</v>
+        <v>0.09860264564604969</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.291812</v>
+        <v>0.5347833333333334</v>
       </c>
       <c r="H4">
-        <v>0.875436</v>
+        <v>1.60435</v>
       </c>
       <c r="I4">
-        <v>0.1179458223311005</v>
+        <v>0.196822066153855</v>
       </c>
       <c r="J4">
-        <v>0.1179458223311005</v>
+        <v>0.196822066153855</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>7.154496</v>
       </c>
       <c r="O4">
-        <v>0.1502337512064693</v>
+        <v>0.1875270694932276</v>
       </c>
       <c r="P4">
-        <v>0.1502337512064694</v>
+        <v>0.1875270694932276</v>
       </c>
       <c r="Q4">
-        <v>0.6959225955839999</v>
+        <v>1.2753684064</v>
       </c>
       <c r="R4">
-        <v>6.263303360256</v>
+        <v>11.4783156576</v>
       </c>
       <c r="S4">
-        <v>0.01771944332793299</v>
+        <v>0.03690946527743462</v>
       </c>
       <c r="T4">
-        <v>0.01771944332793299</v>
+        <v>0.03690946527743461</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1.542198</v>
       </c>
       <c r="I5">
-        <v>0.2077773947009016</v>
+        <v>0.1891972429821067</v>
       </c>
       <c r="J5">
-        <v>0.2077773947009016</v>
+        <v>0.1891972429821067</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.118296</v>
+        <v>3.961421333333333</v>
       </c>
       <c r="N5">
-        <v>21.354888</v>
+        <v>11.884264</v>
       </c>
       <c r="O5">
-        <v>0.4484208155031491</v>
+        <v>0.3114993985605504</v>
       </c>
       <c r="P5">
-        <v>0.4484208155031491</v>
+        <v>0.3114993985605504</v>
       </c>
       <c r="Q5">
-        <v>3.659273951536</v>
+        <v>2.036432019141333</v>
       </c>
       <c r="R5">
-        <v>32.933465563824</v>
+        <v>18.327888172272</v>
       </c>
       <c r="S5">
-        <v>0.093171708774898</v>
+        <v>0.05893482739824056</v>
       </c>
       <c r="T5">
-        <v>0.09317170877489798</v>
+        <v>0.05893482739824054</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1.542198</v>
       </c>
       <c r="I6">
-        <v>0.2077773947009016</v>
+        <v>0.1891972429821067</v>
       </c>
       <c r="J6">
-        <v>0.2077773947009016</v>
+        <v>0.1891972429821067</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>19.113044</v>
       </c>
       <c r="O6">
-        <v>0.4013454332903816</v>
+        <v>0.5009735319462221</v>
       </c>
       <c r="P6">
-        <v>0.4013454332903816</v>
+        <v>0.500973531946222</v>
       </c>
       <c r="Q6">
         <v>3.275122025634667</v>
@@ -818,10 +818,10 @@
         <v>29.476098230712</v>
       </c>
       <c r="S6">
-        <v>0.08339050850417999</v>
+        <v>0.09478281105123358</v>
       </c>
       <c r="T6">
-        <v>0.08339050850417999</v>
+        <v>0.09478281105123354</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1.542198</v>
       </c>
       <c r="I7">
-        <v>0.2077773947009016</v>
+        <v>0.1891972429821067</v>
       </c>
       <c r="J7">
-        <v>0.2077773947009016</v>
+        <v>0.1891972429821067</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>7.154496</v>
       </c>
       <c r="O7">
-        <v>0.1502337512064693</v>
+        <v>0.1875270694932276</v>
       </c>
       <c r="P7">
-        <v>0.1502337512064694</v>
+        <v>0.1875270694932276</v>
       </c>
       <c r="Q7">
         <v>1.225961046912</v>
@@ -880,10 +880,10 @@
         <v>11.033649422208</v>
       </c>
       <c r="S7">
-        <v>0.03121517742182364</v>
+        <v>0.0354796045326326</v>
       </c>
       <c r="T7">
-        <v>0.03121517742182364</v>
+        <v>0.0354796045326326</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>5.004723</v>
       </c>
       <c r="I8">
-        <v>0.674276782967998</v>
+        <v>0.6139806908640383</v>
       </c>
       <c r="J8">
-        <v>0.674276782967998</v>
+        <v>0.6139806908640382</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.118296</v>
+        <v>3.961421333333333</v>
       </c>
       <c r="N8">
-        <v>21.354888</v>
+        <v>11.884264</v>
       </c>
       <c r="O8">
-        <v>0.4484208155031491</v>
+        <v>0.3114993985605504</v>
       </c>
       <c r="P8">
-        <v>0.4484208155031491</v>
+        <v>0.3114993985605504</v>
       </c>
       <c r="Q8">
-        <v>11.875033237336</v>
+        <v>6.608605486541334</v>
       </c>
       <c r="R8">
-        <v>106.875299136024</v>
+        <v>59.477449378872</v>
       </c>
       <c r="S8">
-        <v>0.3023597448933495</v>
+        <v>0.1912546159319392</v>
       </c>
       <c r="T8">
-        <v>0.3023597448933495</v>
+        <v>0.1912546159319391</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>5.004723</v>
       </c>
       <c r="I9">
-        <v>0.674276782967998</v>
+        <v>0.6139806908640383</v>
       </c>
       <c r="J9">
-        <v>0.674276782967998</v>
+        <v>0.6139806908640382</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>19.113044</v>
       </c>
       <c r="O9">
-        <v>0.4013454332903816</v>
+        <v>0.5009735319462221</v>
       </c>
       <c r="P9">
-        <v>0.4013454332903816</v>
+        <v>0.500973531946222</v>
       </c>
       <c r="Q9">
         <v>10.62838787853467</v>
@@ -1004,10 +1004,10 @@
         <v>95.65549090681199</v>
       </c>
       <c r="S9">
-        <v>0.2706179076179357</v>
+        <v>0.3075880752489388</v>
       </c>
       <c r="T9">
-        <v>0.2706179076179357</v>
+        <v>0.3075880752489387</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>5.004723</v>
       </c>
       <c r="I10">
-        <v>0.674276782967998</v>
+        <v>0.6139806908640383</v>
       </c>
       <c r="J10">
-        <v>0.674276782967998</v>
+        <v>0.6139806908640382</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>7.154496</v>
       </c>
       <c r="O10">
-        <v>0.1502337512064693</v>
+        <v>0.1875270694932276</v>
       </c>
       <c r="P10">
-        <v>0.1502337512064694</v>
+        <v>0.1875270694932276</v>
       </c>
       <c r="Q10">
         <v>3.978474520512</v>
@@ -1066,10 +1066,10 @@
         <v>35.806270684608</v>
       </c>
       <c r="S10">
-        <v>0.1012991304567127</v>
+        <v>0.1151379996831604</v>
       </c>
       <c r="T10">
-        <v>0.1012991304567128</v>
+        <v>0.1151379996831604</v>
       </c>
     </row>
   </sheetData>
